--- a/resources/experiment 2/metrics/R2/average time/Ictus.xlsx
+++ b/resources/experiment 2/metrics/R2/average time/Ictus.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9040734363130479</v>
+        <v>0.993279785718383</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9040734363130479</v>
+        <v>0.9934722483273073</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9040734363130479</v>
+        <v>0.9869030749314215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9901632445596714</v>
+        <v>0.9861716140379135</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9901632445596714</v>
+        <v>0.9866269962310491</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9901632445596714</v>
+        <v>0.9638027419938622</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8432318063809593</v>
+        <v>0.9961388843886264</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8432318063809593</v>
+        <v>0.9961659672376908</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8432318063809593</v>
+        <v>0.9954775103081985</v>
       </c>
     </row>
   </sheetData>
